--- a/Code/Results/Cases/Case_2_214/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_214/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01322311038868</v>
+        <v>0.3724909774500134</v>
       </c>
       <c r="C2">
-        <v>0.1934639423631666</v>
+        <v>0.06096444224485253</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8377330273602439</v>
+        <v>0.573075119046436</v>
       </c>
       <c r="F2">
-        <v>2.094798509628873</v>
+        <v>2.493701241078199</v>
       </c>
       <c r="G2">
-        <v>0.4736988168162952</v>
+        <v>0.7683712576383641</v>
       </c>
       <c r="H2">
-        <v>0.3830092371678973</v>
+        <v>0.8580501211901179</v>
       </c>
       <c r="I2">
-        <v>0.325413964114091</v>
+        <v>0.6765997092239715</v>
       </c>
       <c r="J2">
-        <v>0.03352075045009428</v>
+        <v>0.06361314572077958</v>
       </c>
       <c r="K2">
-        <v>1.155298800641134</v>
+        <v>0.4069831657943155</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8796964166740224</v>
+        <v>0.3329082712949116</v>
       </c>
       <c r="C3">
-        <v>0.1677718472356844</v>
+        <v>0.05348938188573982</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7301322023261179</v>
+        <v>0.5471207742935036</v>
       </c>
       <c r="F3">
-        <v>1.90168643305762</v>
+        <v>2.464060770680263</v>
       </c>
       <c r="G3">
-        <v>0.4665557635158137</v>
+        <v>0.7745014181456114</v>
       </c>
       <c r="H3">
-        <v>0.388618580790741</v>
+        <v>0.8661463243303231</v>
       </c>
       <c r="I3">
-        <v>0.3353238758794141</v>
+        <v>0.6851358422237404</v>
       </c>
       <c r="J3">
-        <v>0.03352995820572602</v>
+        <v>0.0642199734112765</v>
       </c>
       <c r="K3">
-        <v>1.002775416300494</v>
+        <v>0.3619623522568816</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7980098754282494</v>
+        <v>0.3086389125737981</v>
       </c>
       <c r="C4">
-        <v>0.1520995094691813</v>
+        <v>0.04889948490702523</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6648538306126994</v>
+        <v>0.5314377078135806</v>
       </c>
       <c r="F4">
-        <v>1.787095830908697</v>
+        <v>2.447418340966095</v>
       </c>
       <c r="G4">
-        <v>0.4638218288979061</v>
+        <v>0.7788880624012506</v>
       </c>
       <c r="H4">
-        <v>0.393013040698996</v>
+        <v>0.8715774164853158</v>
       </c>
       <c r="I4">
-        <v>0.3424305488638737</v>
+        <v>0.6908180710564871</v>
       </c>
       <c r="J4">
-        <v>0.03364516309549437</v>
+        <v>0.06463711258996341</v>
       </c>
       <c r="K4">
-        <v>0.9095210949211889</v>
+        <v>0.3343497870479553</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7647795080846151</v>
+        <v>0.2987580555467275</v>
       </c>
       <c r="C5">
-        <v>0.1457336232972892</v>
+        <v>0.0470290172477803</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6384253769754338</v>
+        <v>0.5251102939846675</v>
       </c>
       <c r="F5">
-        <v>1.74131770370083</v>
+        <v>2.441027092515341</v>
       </c>
       <c r="G5">
-        <v>0.4630983042575707</v>
+        <v>0.7808317799306224</v>
       </c>
       <c r="H5">
-        <v>0.3950317573379962</v>
+        <v>0.8739061917379658</v>
       </c>
       <c r="I5">
-        <v>0.3455713430548677</v>
+        <v>0.6932443225027036</v>
       </c>
       <c r="J5">
-        <v>0.03371808005336163</v>
+        <v>0.06481827404655505</v>
       </c>
       <c r="K5">
-        <v>0.8715964470367226</v>
+        <v>0.323105447359211</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7592646121959206</v>
+        <v>0.2971179087263636</v>
       </c>
       <c r="C6">
-        <v>0.144677681514807</v>
+        <v>0.04671842462458642</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6340466940850433</v>
+        <v>0.524063469243174</v>
       </c>
       <c r="F6">
-        <v>1.73376944339212</v>
+        <v>2.439989402458963</v>
       </c>
       <c r="G6">
-        <v>0.4630010562892011</v>
+        <v>0.7811639488418294</v>
       </c>
       <c r="H6">
-        <v>0.3953804210720762</v>
+        <v>0.8742998595729219</v>
       </c>
       <c r="I6">
-        <v>0.3461073096118881</v>
+        <v>0.6936538797380543</v>
       </c>
       <c r="J6">
-        <v>0.03373171217087112</v>
+        <v>0.0648490298462967</v>
       </c>
       <c r="K6">
-        <v>0.8653031319654758</v>
+        <v>0.3212388275771048</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7975615085653374</v>
+        <v>0.3085056184758059</v>
       </c>
       <c r="C7">
-        <v>0.1520135795066295</v>
+        <v>0.04887425931921996</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.664496738959329</v>
+        <v>0.5313521168055644</v>
       </c>
       <c r="F7">
-        <v>1.78647483737096</v>
+        <v>2.447330565622153</v>
       </c>
       <c r="G7">
-        <v>0.4638105214620651</v>
+        <v>0.7789136445260212</v>
       </c>
       <c r="H7">
-        <v>0.3930393569773187</v>
+        <v>0.8716083554062592</v>
       </c>
       <c r="I7">
-        <v>0.34247193126388</v>
+        <v>0.6908503443895881</v>
       </c>
       <c r="J7">
-        <v>0.03364604333862609</v>
+        <v>0.0646395105904265</v>
       </c>
       <c r="K7">
-        <v>0.9090093454026658</v>
+        <v>0.3341981090556203</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9671098856354661</v>
+        <v>0.358835913338595</v>
       </c>
       <c r="C8">
-        <v>0.1845807944110902</v>
+        <v>0.05838707486091721</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.800452631627806</v>
+        <v>0.5640735047185075</v>
       </c>
       <c r="F8">
-        <v>2.027335707257507</v>
+        <v>2.483157548012002</v>
       </c>
       <c r="G8">
-        <v>0.4708776168256605</v>
+        <v>0.7703554186293644</v>
       </c>
       <c r="H8">
-        <v>0.3847392562685457</v>
+        <v>0.8607461563766066</v>
       </c>
       <c r="I8">
-        <v>0.3286112184992263</v>
+        <v>0.6794513177864907</v>
       </c>
       <c r="J8">
-        <v>0.03350020613719806</v>
+        <v>0.06381311827521685</v>
       </c>
       <c r="K8">
-        <v>1.102612710934892</v>
+        <v>0.3914538817570303</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.302847738013099</v>
+        <v>0.4577951518533609</v>
       </c>
       <c r="C9">
-        <v>0.2495126667156313</v>
+        <v>0.07704133622314657</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.074577972626159</v>
+        <v>0.6302541773728905</v>
       </c>
       <c r="F9">
-        <v>2.535297035525986</v>
+        <v>2.565812422018425</v>
       </c>
       <c r="G9">
-        <v>0.4990452819086499</v>
+        <v>0.7585347379818899</v>
       </c>
       <c r="H9">
-        <v>0.3765364930296045</v>
+        <v>0.8431001624634717</v>
       </c>
       <c r="I9">
-        <v>0.3101283554446645</v>
+        <v>0.6606058955351308</v>
       </c>
       <c r="J9">
-        <v>0.03416016282128354</v>
+        <v>0.06254725278392215</v>
       </c>
       <c r="K9">
-        <v>1.486509160071108</v>
+        <v>0.5039634792386494</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.552845968708823</v>
+        <v>0.5306506035614689</v>
       </c>
       <c r="C10">
-        <v>0.2982569142743046</v>
+        <v>0.09074933775562499</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.282492904883384</v>
+        <v>0.6801200332765376</v>
       </c>
       <c r="F10">
-        <v>2.936385175183148</v>
+        <v>2.634169651478373</v>
       </c>
       <c r="G10">
-        <v>0.5302724525847111</v>
+        <v>0.7529048902455884</v>
       </c>
       <c r="H10">
-        <v>0.3762347202707588</v>
+        <v>0.8323706299216553</v>
       </c>
       <c r="I10">
-        <v>0.302735560322354</v>
+        <v>0.6489108220459556</v>
       </c>
       <c r="J10">
-        <v>0.03533772455364215</v>
+        <v>0.06183520069965098</v>
       </c>
       <c r="K10">
-        <v>1.772832798319428</v>
+        <v>0.5867605303378696</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.667632149682134</v>
+        <v>0.5638255794814029</v>
       </c>
       <c r="C11">
-        <v>0.3207539690856436</v>
+        <v>0.09698678098482105</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.378977073480101</v>
+        <v>0.7030788531841523</v>
       </c>
       <c r="F11">
-        <v>3.126436220488898</v>
+        <v>2.666940423114738</v>
       </c>
       <c r="G11">
-        <v>0.5472095148884648</v>
+        <v>0.7510135272942193</v>
       </c>
       <c r="H11">
-        <v>0.3775377172961925</v>
+        <v>0.8279763258801296</v>
       </c>
       <c r="I11">
-        <v>0.3009322489365935</v>
+        <v>0.6440600335120727</v>
       </c>
       <c r="J11">
-        <v>0.03605251757943861</v>
+        <v>0.06155898359595469</v>
       </c>
       <c r="K11">
-        <v>1.904434174606791</v>
+        <v>0.6244562695196123</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.711281359319173</v>
+        <v>0.5763924928410518</v>
       </c>
       <c r="C12">
-        <v>0.3293283746245379</v>
+        <v>0.09934899860675728</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.415831700934262</v>
+        <v>0.7118124271806892</v>
       </c>
       <c r="F12">
-        <v>3.199637616767092</v>
+        <v>2.679591815170284</v>
       </c>
       <c r="G12">
-        <v>0.5540569970147402</v>
+        <v>0.7503941364558671</v>
       </c>
       <c r="H12">
-        <v>0.3782565068985804</v>
+        <v>0.8263824235449562</v>
       </c>
       <c r="I12">
-        <v>0.300493698146024</v>
+        <v>0.6422908823225413</v>
       </c>
       <c r="J12">
-        <v>0.03635161686073829</v>
+        <v>0.06146127769405041</v>
       </c>
       <c r="K12">
-        <v>1.954500516307888</v>
+        <v>0.6387348975431735</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.701872116507218</v>
+        <v>0.5736858000371683</v>
       </c>
       <c r="C13">
-        <v>0.3274791153510819</v>
+        <v>0.09884024235174138</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.407879485058757</v>
+        <v>0.7099297346516806</v>
       </c>
       <c r="F13">
-        <v>3.183815135403506</v>
+        <v>2.676856341027246</v>
       </c>
       <c r="G13">
-        <v>0.5525622821095055</v>
+        <v>0.7505232185262543</v>
       </c>
       <c r="H13">
-        <v>0.3780913695686507</v>
+        <v>0.8267225776808118</v>
       </c>
       <c r="I13">
-        <v>0.3005769422019213</v>
+        <v>0.6426688841659143</v>
       </c>
       <c r="J13">
-        <v>0.03628589104313562</v>
+        <v>0.06148201338722714</v>
       </c>
       <c r="K13">
-        <v>1.943706891210809</v>
+        <v>0.6356595645123662</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.67121936554426</v>
+        <v>0.5648593838584759</v>
       </c>
       <c r="C14">
-        <v>0.3214582294422996</v>
+        <v>0.09718111735907087</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.382002476719791</v>
+        <v>0.7037965761057023</v>
       </c>
       <c r="F14">
-        <v>3.132432967880419</v>
+        <v>2.667976408784</v>
       </c>
       <c r="G14">
-        <v>0.5477639190444279</v>
+        <v>0.7509606260499311</v>
       </c>
       <c r="H14">
-        <v>0.3775922248903498</v>
+        <v>0.8278437882945013</v>
       </c>
       <c r="I14">
-        <v>0.3008911509798153</v>
+        <v>0.6439131254263657</v>
       </c>
       <c r="J14">
-        <v>0.03607653879875983</v>
+        <v>0.06155080696969151</v>
       </c>
       <c r="K14">
-        <v>1.908548290521736</v>
+        <v>0.6256309014349881</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.65246832264333</v>
+        <v>0.5594534925762389</v>
       </c>
       <c r="C15">
-        <v>0.3177777360950245</v>
+        <v>0.09616488586053151</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.366194901892356</v>
+        <v>0.7000449947113765</v>
       </c>
       <c r="F15">
-        <v>3.101124941825645</v>
+        <v>2.662568714449208</v>
       </c>
       <c r="G15">
-        <v>0.5448825571782692</v>
+        <v>0.7512411762272961</v>
       </c>
       <c r="H15">
-        <v>0.3773164063660914</v>
+        <v>0.8285396990367673</v>
       </c>
       <c r="I15">
-        <v>0.301116057925217</v>
+        <v>0.6446840877511235</v>
       </c>
       <c r="J15">
-        <v>0.03595208965318974</v>
+        <v>0.06159384347103014</v>
       </c>
       <c r="K15">
-        <v>1.887043986873437</v>
+        <v>0.6194885745379963</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.54536823737098</v>
+        <v>0.5284831615319661</v>
       </c>
       <c r="C16">
-        <v>0.2967939118680079</v>
+        <v>0.09034173865066464</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.276229425400388</v>
+        <v>0.6786251527221339</v>
       </c>
       <c r="F16">
-        <v>2.924129447943443</v>
+        <v>2.632061788531388</v>
       </c>
       <c r="G16">
-        <v>0.5292239592807846</v>
+        <v>0.7530420160879885</v>
       </c>
       <c r="H16">
-        <v>0.3761800705542271</v>
+        <v>0.8326676128052526</v>
       </c>
       <c r="I16">
-        <v>0.3028864673956697</v>
+        <v>0.6492372980222498</v>
       </c>
       <c r="J16">
-        <v>0.03529483734890349</v>
+        <v>0.06185421473416142</v>
       </c>
       <c r="K16">
-        <v>1.764262650130945</v>
+        <v>0.5842976151973858</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.479957711948742</v>
+        <v>0.5094919272898721</v>
       </c>
       <c r="C17">
-        <v>0.2840097448075767</v>
+        <v>0.08676983887778533</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.221556067689988</v>
+        <v>0.6655551592629507</v>
       </c>
       <c r="F17">
-        <v>2.817589485175063</v>
+        <v>2.613776415401361</v>
       </c>
       <c r="G17">
-        <v>0.5203455251743776</v>
+        <v>0.7543186701441158</v>
       </c>
       <c r="H17">
-        <v>0.3758643160872026</v>
+        <v>0.8353246946644788</v>
       </c>
       <c r="I17">
-        <v>0.3043857204540998</v>
+        <v>0.6521509324926775</v>
       </c>
       <c r="J17">
-        <v>0.03493932555895185</v>
+        <v>0.06202618397452042</v>
       </c>
       <c r="K17">
-        <v>1.689311911068103</v>
+        <v>0.5627167549792773</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.442433216176852</v>
+        <v>0.4985717714959321</v>
       </c>
       <c r="C18">
-        <v>0.2766864596697474</v>
+        <v>0.08471552742042832</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.190285546445025</v>
+        <v>0.6580634854597918</v>
       </c>
       <c r="F18">
-        <v>2.757016047102127</v>
+        <v>2.60341672575808</v>
       </c>
       <c r="G18">
-        <v>0.5154933322151436</v>
+        <v>0.7551159699306424</v>
       </c>
       <c r="H18">
-        <v>0.3758170775833207</v>
+        <v>0.8368987712075153</v>
       </c>
       <c r="I18">
-        <v>0.3053935541200516</v>
+        <v>0.653870941641415</v>
       </c>
       <c r="J18">
-        <v>0.0347515292472842</v>
+        <v>0.06212958383631673</v>
       </c>
       <c r="K18">
-        <v>1.646326976225282</v>
+        <v>0.5503069500628612</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.42974402405315</v>
+        <v>0.4948749398843972</v>
       </c>
       <c r="C19">
-        <v>0.2742117905020223</v>
+        <v>0.084019998701649</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.179726857225475</v>
+        <v>0.6555313692119853</v>
       </c>
       <c r="F19">
-        <v>2.736624025439824</v>
+        <v>2.599936146264554</v>
       </c>
       <c r="G19">
-        <v>0.5138929779681121</v>
+        <v>0.7553967265550767</v>
       </c>
       <c r="H19">
-        <v>0.3758236336717005</v>
+        <v>0.8374395869590501</v>
       </c>
       <c r="I19">
-        <v>0.3057591986962613</v>
+        <v>0.6544608849209261</v>
       </c>
       <c r="J19">
-        <v>0.03469073323223881</v>
+        <v>0.06216536303239195</v>
       </c>
       <c r="K19">
-        <v>1.631793358226503</v>
+        <v>0.5461057191311909</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.4869104349834</v>
+        <v>0.5115132588861115</v>
       </c>
       <c r="C20">
-        <v>0.2853674930152863</v>
+        <v>0.08715005808255682</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.227357601531025</v>
+        <v>0.6669438073881366</v>
       </c>
       <c r="F20">
-        <v>2.828856849052556</v>
+        <v>2.615706609195144</v>
       </c>
       <c r="G20">
-        <v>0.5212640306766758</v>
+        <v>0.7541762438310684</v>
       </c>
       <c r="H20">
-        <v>0.3758838945391858</v>
+        <v>0.8350371032336739</v>
       </c>
       <c r="I20">
-        <v>0.3042109241101656</v>
+        <v>0.6518361985876702</v>
       </c>
       <c r="J20">
-        <v>0.03497542511608387</v>
+        <v>0.06200741286016154</v>
       </c>
       <c r="K20">
-        <v>1.697277374400215</v>
+        <v>0.5650137733934173</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.680217627123625</v>
+        <v>0.5674518037388054</v>
       </c>
       <c r="C21">
-        <v>0.3232251351785749</v>
+        <v>0.09766843623151544</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.389594167036677</v>
+        <v>0.7055969589278277</v>
       </c>
       <c r="F21">
-        <v>3.147490490059482</v>
+        <v>2.670578089500879</v>
       </c>
       <c r="G21">
-        <v>0.5491611958252207</v>
+        <v>0.750829516784151</v>
       </c>
       <c r="H21">
-        <v>0.3777325649748207</v>
+        <v>0.8275125571731934</v>
       </c>
       <c r="I21">
-        <v>0.3007920602887104</v>
+        <v>0.6435458212933085</v>
       </c>
       <c r="J21">
-        <v>0.03613723666537538</v>
+        <v>0.06153041333386611</v>
       </c>
       <c r="K21">
-        <v>1.918868617556399</v>
+        <v>0.6285764554299362</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.807632744117512</v>
+        <v>0.6040355705868592</v>
       </c>
       <c r="C22">
-        <v>0.3482941459330107</v>
+        <v>0.104544165790827</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.497503959624197</v>
+        <v>0.7310896968456149</v>
       </c>
       <c r="F22">
-        <v>3.36300031905887</v>
+        <v>2.707849705154587</v>
       </c>
       <c r="G22">
-        <v>0.5699439503385548</v>
+        <v>0.7492068659627193</v>
       </c>
       <c r="H22">
-        <v>0.3802641986733306</v>
+        <v>0.8230036455973249</v>
       </c>
       <c r="I22">
-        <v>0.2999924404305681</v>
+        <v>0.6385225181088181</v>
       </c>
       <c r="J22">
-        <v>0.03706365297707848</v>
+        <v>0.06125885079589111</v>
       </c>
       <c r="K22">
-        <v>2.065062224154786</v>
+        <v>0.6701418915353088</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.739519744120571</v>
+        <v>0.5845080060200019</v>
       </c>
       <c r="C23">
-        <v>0.3348812843112512</v>
+        <v>0.1008743338620377</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.439722535369043</v>
+        <v>0.7174626085194262</v>
       </c>
       <c r="F23">
-        <v>3.247263442584256</v>
+        <v>2.687827804533839</v>
       </c>
       <c r="G23">
-        <v>0.5586038643736373</v>
+        <v>0.7500210671546341</v>
       </c>
       <c r="H23">
-        <v>0.3787854234814034</v>
+        <v>0.8253726799622427</v>
       </c>
       <c r="I23">
-        <v>0.3002808038861104</v>
+        <v>0.6411673319841213</v>
       </c>
       <c r="J23">
-        <v>0.03655296458109447</v>
+        <v>0.06140010120728334</v>
       </c>
       <c r="K23">
-        <v>1.98689716732892</v>
+        <v>0.6479556054248405</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.483766859161591</v>
+        <v>0.5105994205794389</v>
       </c>
       <c r="C24">
-        <v>0.284753573155001</v>
+        <v>0.08697816340819031</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.224734227043868</v>
+        <v>0.666315929683833</v>
       </c>
       <c r="F24">
-        <v>2.823760773121876</v>
+        <v>2.61483349263321</v>
       </c>
       <c r="G24">
-        <v>0.5208479920383269</v>
+        <v>0.7542404375179075</v>
       </c>
       <c r="H24">
-        <v>0.3758746261878656</v>
+        <v>0.8351669785258338</v>
       </c>
       <c r="I24">
-        <v>0.3042894966049872</v>
+        <v>0.65197834987001</v>
       </c>
       <c r="J24">
-        <v>0.03495905302368385</v>
+        <v>0.06201588516585943</v>
       </c>
       <c r="K24">
-        <v>1.693675863403115</v>
+        <v>0.5639752996929133</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.211541114690164</v>
+        <v>0.4309970361667865</v>
       </c>
       <c r="C25">
-        <v>0.231794655033255</v>
+        <v>0.07199460237549715</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.9994266198716275</v>
+        <v>0.6121333869644445</v>
       </c>
       <c r="F25">
-        <v>2.393462076970266</v>
+        <v>2.542117319470123</v>
       </c>
       <c r="G25">
-        <v>0.4897156313303128</v>
+        <v>0.7611982482860782</v>
       </c>
       <c r="H25">
-        <v>0.3778124034706423</v>
+        <v>0.8474818913949207</v>
       </c>
       <c r="I25">
-        <v>0.3141104113903133</v>
+        <v>0.6653272775728212</v>
       </c>
       <c r="J25">
-        <v>0.03386899653560604</v>
+        <v>0.06285155059450886</v>
       </c>
       <c r="K25">
-        <v>1.382035319346841</v>
+        <v>0.4735024081586232</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_214/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_214/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3724909774500134</v>
+        <v>1.013223110388822</v>
       </c>
       <c r="C2">
-        <v>0.06096444224485253</v>
+        <v>0.1934639423629676</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.573075119046436</v>
+        <v>0.8377330273602581</v>
       </c>
       <c r="F2">
-        <v>2.493701241078199</v>
+        <v>2.094798509628873</v>
       </c>
       <c r="G2">
-        <v>0.7683712576383641</v>
+        <v>0.4736988168162242</v>
       </c>
       <c r="H2">
-        <v>0.8580501211901179</v>
+        <v>0.3830092371678973</v>
       </c>
       <c r="I2">
-        <v>0.6765997092239715</v>
+        <v>0.3254139641140981</v>
       </c>
       <c r="J2">
-        <v>0.06361314572077958</v>
+        <v>0.03352075045004099</v>
       </c>
       <c r="K2">
-        <v>0.4069831657943155</v>
+        <v>1.155298800641077</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3329082712949116</v>
+        <v>0.8796964166740509</v>
       </c>
       <c r="C3">
-        <v>0.05348938188573982</v>
+        <v>0.1677718472355849</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5471207742935036</v>
+        <v>0.7301322023261463</v>
       </c>
       <c r="F3">
-        <v>2.464060770680263</v>
+        <v>1.901686433057634</v>
       </c>
       <c r="G3">
-        <v>0.7745014181456114</v>
+        <v>0.4665557635158066</v>
       </c>
       <c r="H3">
-        <v>0.8661463243303231</v>
+        <v>0.388618580790741</v>
       </c>
       <c r="I3">
-        <v>0.6851358422237404</v>
+        <v>0.3353238758794106</v>
       </c>
       <c r="J3">
-        <v>0.0642199734112765</v>
+        <v>0.03352995820572602</v>
       </c>
       <c r="K3">
-        <v>0.3619623522568816</v>
+        <v>1.002775416300494</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3086389125737981</v>
+        <v>0.798009875428221</v>
       </c>
       <c r="C4">
-        <v>0.04889948490702523</v>
+        <v>0.152099509469025</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5314377078135806</v>
+        <v>0.6648538306126852</v>
       </c>
       <c r="F4">
-        <v>2.447418340966095</v>
+        <v>1.787095830908697</v>
       </c>
       <c r="G4">
-        <v>0.7788880624012506</v>
+        <v>0.4638218288978848</v>
       </c>
       <c r="H4">
-        <v>0.8715774164853158</v>
+        <v>0.393013040698996</v>
       </c>
       <c r="I4">
-        <v>0.6908180710564871</v>
+        <v>0.3424305488638701</v>
       </c>
       <c r="J4">
-        <v>0.06463711258996341</v>
+        <v>0.03364516309555299</v>
       </c>
       <c r="K4">
-        <v>0.3343497870479553</v>
+        <v>0.9095210949212174</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2987580555467275</v>
+        <v>0.7647795080847288</v>
       </c>
       <c r="C5">
-        <v>0.0470290172477803</v>
+        <v>0.1457336232973603</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5251102939846675</v>
+        <v>0.6384253769754196</v>
       </c>
       <c r="F5">
-        <v>2.441027092515341</v>
+        <v>1.74131770370083</v>
       </c>
       <c r="G5">
-        <v>0.7808317799306224</v>
+        <v>0.4630983042575707</v>
       </c>
       <c r="H5">
-        <v>0.8739061917379658</v>
+        <v>0.3950317573379962</v>
       </c>
       <c r="I5">
-        <v>0.6932443225027036</v>
+        <v>0.3455713430548712</v>
       </c>
       <c r="J5">
-        <v>0.06481827404655505</v>
+        <v>0.03371808005335808</v>
       </c>
       <c r="K5">
-        <v>0.323105447359211</v>
+        <v>0.8715964470366089</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2971179087263636</v>
+        <v>0.7592646121957785</v>
       </c>
       <c r="C6">
-        <v>0.04671842462458642</v>
+        <v>0.1446776815145512</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.524063469243174</v>
+        <v>0.6340466940850291</v>
       </c>
       <c r="F6">
-        <v>2.439989402458963</v>
+        <v>1.733769443392106</v>
       </c>
       <c r="G6">
-        <v>0.7811639488418294</v>
+        <v>0.4630010562892224</v>
       </c>
       <c r="H6">
-        <v>0.8742998595729219</v>
+        <v>0.3953804210719696</v>
       </c>
       <c r="I6">
-        <v>0.6936538797380543</v>
+        <v>0.3461073096118987</v>
       </c>
       <c r="J6">
-        <v>0.0648490298462967</v>
+        <v>0.03373171217098658</v>
       </c>
       <c r="K6">
-        <v>0.3212388275771048</v>
+        <v>0.8653031319656463</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3085056184758059</v>
+        <v>0.7975615085653374</v>
       </c>
       <c r="C7">
-        <v>0.04887425931921996</v>
+        <v>0.1520135795067858</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5313521168055644</v>
+        <v>0.6644967389593717</v>
       </c>
       <c r="F7">
-        <v>2.447330565622153</v>
+        <v>1.786474837370946</v>
       </c>
       <c r="G7">
-        <v>0.7789136445260212</v>
+        <v>0.4638105214620651</v>
       </c>
       <c r="H7">
-        <v>0.8716083554062592</v>
+        <v>0.3930393569773045</v>
       </c>
       <c r="I7">
-        <v>0.6908503443895881</v>
+        <v>0.3424719312638871</v>
       </c>
       <c r="J7">
-        <v>0.0646395105904265</v>
+        <v>0.03364604333862076</v>
       </c>
       <c r="K7">
-        <v>0.3341981090556203</v>
+        <v>0.9090093454026373</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.358835913338595</v>
+        <v>0.9671098856354092</v>
       </c>
       <c r="C8">
-        <v>0.05838707486091721</v>
+        <v>0.184580794411076</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5640735047185075</v>
+        <v>0.8004526316277776</v>
       </c>
       <c r="F8">
-        <v>2.483157548012002</v>
+        <v>2.027335707257492</v>
       </c>
       <c r="G8">
-        <v>0.7703554186293644</v>
+        <v>0.4708776168256605</v>
       </c>
       <c r="H8">
-        <v>0.8607461563766066</v>
+        <v>0.384739256268432</v>
       </c>
       <c r="I8">
-        <v>0.6794513177864907</v>
+        <v>0.3286112184992263</v>
       </c>
       <c r="J8">
-        <v>0.06381311827521685</v>
+        <v>0.03350020613723714</v>
       </c>
       <c r="K8">
-        <v>0.3914538817570303</v>
+        <v>1.102612710934977</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4577951518533609</v>
+        <v>1.302847738012986</v>
       </c>
       <c r="C9">
-        <v>0.07704133622314657</v>
+        <v>0.249512666715745</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6302541773728905</v>
+        <v>1.074577972626159</v>
       </c>
       <c r="F9">
-        <v>2.565812422018425</v>
+        <v>2.535297035525986</v>
       </c>
       <c r="G9">
-        <v>0.7585347379818899</v>
+        <v>0.4990452819086215</v>
       </c>
       <c r="H9">
-        <v>0.8431001624634717</v>
+        <v>0.3765364930296187</v>
       </c>
       <c r="I9">
-        <v>0.6606058955351308</v>
+        <v>0.310128355444693</v>
       </c>
       <c r="J9">
-        <v>0.06254725278392215</v>
+        <v>0.03416016282139012</v>
       </c>
       <c r="K9">
-        <v>0.5039634792386494</v>
+        <v>1.48650916007108</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5306506035614689</v>
+        <v>1.552845968708908</v>
       </c>
       <c r="C10">
-        <v>0.09074933775562499</v>
+        <v>0.2982569142740772</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6801200332765376</v>
+        <v>1.28249290488337</v>
       </c>
       <c r="F10">
-        <v>2.634169651478373</v>
+        <v>2.936385175183176</v>
       </c>
       <c r="G10">
-        <v>0.7529048902455884</v>
+        <v>0.5302724525847395</v>
       </c>
       <c r="H10">
-        <v>0.8323706299216553</v>
+        <v>0.3762347202707588</v>
       </c>
       <c r="I10">
-        <v>0.6489108220459556</v>
+        <v>0.3027355603223789</v>
       </c>
       <c r="J10">
-        <v>0.06183520069965098</v>
+        <v>0.03533772455363149</v>
       </c>
       <c r="K10">
-        <v>0.5867605303378696</v>
+        <v>1.772832798319399</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5638255794814029</v>
+        <v>1.667632149682248</v>
       </c>
       <c r="C11">
-        <v>0.09698678098482105</v>
+        <v>0.3207539690852741</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7030788531841523</v>
+        <v>1.378977073480101</v>
       </c>
       <c r="F11">
-        <v>2.666940423114738</v>
+        <v>3.126436220488898</v>
       </c>
       <c r="G11">
-        <v>0.7510135272942193</v>
+        <v>0.5472095148885501</v>
       </c>
       <c r="H11">
-        <v>0.8279763258801296</v>
+        <v>0.3775377172961782</v>
       </c>
       <c r="I11">
-        <v>0.6440600335120727</v>
+        <v>0.3009322489366184</v>
       </c>
       <c r="J11">
-        <v>0.06155898359595469</v>
+        <v>0.03605251757943151</v>
       </c>
       <c r="K11">
-        <v>0.6244562695196123</v>
+        <v>1.904434174606706</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5763924928410518</v>
+        <v>1.711281359319344</v>
       </c>
       <c r="C12">
-        <v>0.09934899860675728</v>
+        <v>0.3293283746249926</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7118124271806892</v>
+        <v>1.415831700934234</v>
       </c>
       <c r="F12">
-        <v>2.679591815170284</v>
+        <v>3.199637616767092</v>
       </c>
       <c r="G12">
-        <v>0.7503941364558671</v>
+        <v>0.5540569970147544</v>
       </c>
       <c r="H12">
-        <v>0.8263824235449562</v>
+        <v>0.3782565068985804</v>
       </c>
       <c r="I12">
-        <v>0.6422908823225413</v>
+        <v>0.3004936981460453</v>
       </c>
       <c r="J12">
-        <v>0.06146127769405041</v>
+        <v>0.03635161686077026</v>
       </c>
       <c r="K12">
-        <v>0.6387348975431735</v>
+        <v>1.954500516307917</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5736858000371683</v>
+        <v>1.701872116507246</v>
       </c>
       <c r="C13">
-        <v>0.09884024235174138</v>
+        <v>0.3274791153508545</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7099297346516806</v>
+        <v>1.407879485058771</v>
       </c>
       <c r="F13">
-        <v>2.676856341027246</v>
+        <v>3.183815135403535</v>
       </c>
       <c r="G13">
-        <v>0.7505232185262543</v>
+        <v>0.5525622821095908</v>
       </c>
       <c r="H13">
-        <v>0.8267225776808118</v>
+        <v>0.3780913695686507</v>
       </c>
       <c r="I13">
-        <v>0.6426688841659143</v>
+        <v>0.3005769422019071</v>
       </c>
       <c r="J13">
-        <v>0.06148201338722714</v>
+        <v>0.03628589104318181</v>
       </c>
       <c r="K13">
-        <v>0.6356595645123662</v>
+        <v>1.943706891210752</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5648593838584759</v>
+        <v>1.671219365544459</v>
       </c>
       <c r="C14">
-        <v>0.09718111735907087</v>
+        <v>0.3214582294425838</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.7037965761057023</v>
+        <v>1.382002476719805</v>
       </c>
       <c r="F14">
-        <v>2.667976408784</v>
+        <v>3.132432967880391</v>
       </c>
       <c r="G14">
-        <v>0.7509606260499311</v>
+        <v>0.5477639190444279</v>
       </c>
       <c r="H14">
-        <v>0.8278437882945013</v>
+        <v>0.3775922248903498</v>
       </c>
       <c r="I14">
-        <v>0.6439131254263657</v>
+        <v>0.3008911509798189</v>
       </c>
       <c r="J14">
-        <v>0.06155080696969151</v>
+        <v>0.03607653879859996</v>
       </c>
       <c r="K14">
-        <v>0.6256309014349881</v>
+        <v>1.908548290521651</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5594534925762389</v>
+        <v>1.652468322643273</v>
       </c>
       <c r="C15">
-        <v>0.09616488586053151</v>
+        <v>0.3177777360947402</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7000449947113765</v>
+        <v>1.366194901892385</v>
       </c>
       <c r="F15">
-        <v>2.662568714449208</v>
+        <v>3.101124941825645</v>
       </c>
       <c r="G15">
-        <v>0.7512411762272961</v>
+        <v>0.5448825571782976</v>
       </c>
       <c r="H15">
-        <v>0.8285396990367673</v>
+        <v>0.3773164063662193</v>
       </c>
       <c r="I15">
-        <v>0.6446840877511235</v>
+        <v>0.3011160579252063</v>
       </c>
       <c r="J15">
-        <v>0.06159384347103014</v>
+        <v>0.03595208965314001</v>
       </c>
       <c r="K15">
-        <v>0.6194885745379963</v>
+        <v>1.887043986873266</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5284831615319661</v>
+        <v>1.545368237370951</v>
       </c>
       <c r="C16">
-        <v>0.09034173865066464</v>
+        <v>0.2967939118681784</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6786251527221339</v>
+        <v>1.276229425400388</v>
       </c>
       <c r="F16">
-        <v>2.632061788531388</v>
+        <v>2.924129447943415</v>
       </c>
       <c r="G16">
-        <v>0.7530420160879885</v>
+        <v>0.5292239592807704</v>
       </c>
       <c r="H16">
-        <v>0.8326676128052526</v>
+        <v>0.3761800705542271</v>
       </c>
       <c r="I16">
-        <v>0.6492372980222498</v>
+        <v>0.3028864673956591</v>
       </c>
       <c r="J16">
-        <v>0.06185421473416142</v>
+        <v>0.0352948373486548</v>
       </c>
       <c r="K16">
-        <v>0.5842976151973858</v>
+        <v>1.764262650130888</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5094919272898721</v>
+        <v>1.479957711948742</v>
       </c>
       <c r="C17">
-        <v>0.08676983887778533</v>
+        <v>0.2840097448076051</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6655551592629507</v>
+        <v>1.221556067689946</v>
       </c>
       <c r="F17">
-        <v>2.613776415401361</v>
+        <v>2.817589485175063</v>
       </c>
       <c r="G17">
-        <v>0.7543186701441158</v>
+        <v>0.5203455251743065</v>
       </c>
       <c r="H17">
-        <v>0.8353246946644788</v>
+        <v>0.3758643160872026</v>
       </c>
       <c r="I17">
-        <v>0.6521509324926775</v>
+        <v>0.3043857204540998</v>
       </c>
       <c r="J17">
-        <v>0.06202618397452042</v>
+        <v>0.03493932555889856</v>
       </c>
       <c r="K17">
-        <v>0.5627167549792773</v>
+        <v>1.68931191106816</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4985717714959321</v>
+        <v>1.442433216176539</v>
       </c>
       <c r="C18">
-        <v>0.08471552742042832</v>
+        <v>0.27668645967006</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6580634854597918</v>
+        <v>1.190285546445011</v>
       </c>
       <c r="F18">
-        <v>2.60341672575808</v>
+        <v>2.757016047102127</v>
       </c>
       <c r="G18">
-        <v>0.7551159699306424</v>
+        <v>0.5154933322151436</v>
       </c>
       <c r="H18">
-        <v>0.8368987712075153</v>
+        <v>0.3758170775834202</v>
       </c>
       <c r="I18">
-        <v>0.653870941641415</v>
+        <v>0.3053935541200588</v>
       </c>
       <c r="J18">
-        <v>0.06212958383631673</v>
+        <v>0.03475152924725222</v>
       </c>
       <c r="K18">
-        <v>0.5503069500628612</v>
+        <v>1.646326976225339</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4948749398843972</v>
+        <v>1.429744024053008</v>
       </c>
       <c r="C19">
-        <v>0.084019998701649</v>
+        <v>0.2742117905017096</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6555313692119853</v>
+        <v>1.179726857225518</v>
       </c>
       <c r="F19">
-        <v>2.599936146264554</v>
+        <v>2.736624025439767</v>
       </c>
       <c r="G19">
-        <v>0.7553967265550767</v>
+        <v>0.5138929779680694</v>
       </c>
       <c r="H19">
-        <v>0.8374395869590501</v>
+        <v>0.3758236336717999</v>
       </c>
       <c r="I19">
-        <v>0.6544608849209261</v>
+        <v>0.3057591986962898</v>
       </c>
       <c r="J19">
-        <v>0.06216536303239195</v>
+        <v>0.03469073323226723</v>
       </c>
       <c r="K19">
-        <v>0.5461057191311909</v>
+        <v>1.631793358226531</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5115132588861115</v>
+        <v>1.486910434983372</v>
       </c>
       <c r="C20">
-        <v>0.08715005808255682</v>
+        <v>0.2853674930156274</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6669438073881366</v>
+        <v>1.22735760153104</v>
       </c>
       <c r="F20">
-        <v>2.615706609195144</v>
+        <v>2.828856849052585</v>
       </c>
       <c r="G20">
-        <v>0.7541762438310684</v>
+        <v>0.5212640306766474</v>
       </c>
       <c r="H20">
-        <v>0.8350371032336739</v>
+        <v>0.3758838945392142</v>
       </c>
       <c r="I20">
-        <v>0.6518361985876702</v>
+        <v>0.3042109241101798</v>
       </c>
       <c r="J20">
-        <v>0.06200741286016154</v>
+        <v>0.03497542511603058</v>
       </c>
       <c r="K20">
-        <v>0.5650137733934173</v>
+        <v>1.697277374400358</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5674518037388054</v>
+        <v>1.680217627123625</v>
       </c>
       <c r="C21">
-        <v>0.09766843623151544</v>
+        <v>0.3232251351788307</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7055969589278277</v>
+        <v>1.389594167036705</v>
       </c>
       <c r="F21">
-        <v>2.670578089500879</v>
+        <v>3.147490490059454</v>
       </c>
       <c r="G21">
-        <v>0.750829516784151</v>
+        <v>0.5491611958252349</v>
       </c>
       <c r="H21">
-        <v>0.8275125571731934</v>
+        <v>0.3777325649748349</v>
       </c>
       <c r="I21">
-        <v>0.6435458212933085</v>
+        <v>0.3007920602887175</v>
       </c>
       <c r="J21">
-        <v>0.06153041333386611</v>
+        <v>0.03613723666538249</v>
       </c>
       <c r="K21">
-        <v>0.6285764554299362</v>
+        <v>1.918868617556228</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6040355705868592</v>
+        <v>1.807632744117456</v>
       </c>
       <c r="C22">
-        <v>0.104544165790827</v>
+        <v>0.3482941459334086</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7310896968456149</v>
+        <v>1.497503959624154</v>
       </c>
       <c r="F22">
-        <v>2.707849705154587</v>
+        <v>3.36300031905887</v>
       </c>
       <c r="G22">
-        <v>0.7492068659627193</v>
+        <v>0.5699439503385548</v>
       </c>
       <c r="H22">
-        <v>0.8230036455973249</v>
+        <v>0.3802641986733164</v>
       </c>
       <c r="I22">
-        <v>0.6385225181088181</v>
+        <v>0.2999924404305716</v>
       </c>
       <c r="J22">
-        <v>0.06125885079589111</v>
+        <v>0.03706365297702874</v>
       </c>
       <c r="K22">
-        <v>0.6701418915353088</v>
+        <v>2.065062224154758</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5845080060200019</v>
+        <v>1.739519744120884</v>
       </c>
       <c r="C23">
-        <v>0.1008743338620377</v>
+        <v>0.3348812843113649</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7174626085194262</v>
+        <v>1.439722535369043</v>
       </c>
       <c r="F23">
-        <v>2.687827804533839</v>
+        <v>3.247263442584256</v>
       </c>
       <c r="G23">
-        <v>0.7500210671546341</v>
+        <v>0.5586038643736515</v>
       </c>
       <c r="H23">
-        <v>0.8253726799622427</v>
+        <v>0.3787854234814034</v>
       </c>
       <c r="I23">
-        <v>0.6411673319841213</v>
+        <v>0.300280803886114</v>
       </c>
       <c r="J23">
-        <v>0.06140010120728334</v>
+        <v>0.03655296458113355</v>
       </c>
       <c r="K23">
-        <v>0.6479556054248405</v>
+        <v>1.986897167328976</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5105994205794389</v>
+        <v>1.48376685916179</v>
       </c>
       <c r="C24">
-        <v>0.08697816340819031</v>
+        <v>0.2847535731544042</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.666315929683833</v>
+        <v>1.224734227043911</v>
       </c>
       <c r="F24">
-        <v>2.61483349263321</v>
+        <v>2.823760773121904</v>
       </c>
       <c r="G24">
-        <v>0.7542404375179075</v>
+        <v>0.52084799203827</v>
       </c>
       <c r="H24">
-        <v>0.8351669785258338</v>
+        <v>0.3758746261878514</v>
       </c>
       <c r="I24">
-        <v>0.65197834987001</v>
+        <v>0.3042894966049872</v>
       </c>
       <c r="J24">
-        <v>0.06201588516585943</v>
+        <v>0.03495905302360214</v>
       </c>
       <c r="K24">
-        <v>0.5639752996929133</v>
+        <v>1.6936758634032</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4309970361667865</v>
+        <v>1.211541114690249</v>
       </c>
       <c r="C25">
-        <v>0.07199460237549715</v>
+        <v>0.2317946550332408</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6121333869644445</v>
+        <v>0.9994266198715991</v>
       </c>
       <c r="F25">
-        <v>2.542117319470123</v>
+        <v>2.39346207697028</v>
       </c>
       <c r="G25">
-        <v>0.7611982482860782</v>
+        <v>0.4897156313303412</v>
       </c>
       <c r="H25">
-        <v>0.8474818913949207</v>
+        <v>0.3778124034705286</v>
       </c>
       <c r="I25">
-        <v>0.6653272775728212</v>
+        <v>0.3141104113903133</v>
       </c>
       <c r="J25">
-        <v>0.06285155059450886</v>
+        <v>0.03386899653559183</v>
       </c>
       <c r="K25">
-        <v>0.4735024081586232</v>
+        <v>1.382035319346841</v>
       </c>
       <c r="L25">
         <v>0</v>
